--- a/regulus/test/function_test.xlsx
+++ b/regulus/test/function_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
-  <si>
-    <t>テスト項目</t>
-    <rPh sb="3" eb="5">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>期待結果</t>
     <rPh sb="0" eb="4">
@@ -52,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,14 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rates: [&lt;USDJPYの通貨情報&gt;]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: [&lt;USDJPYの通貨情報&gt;]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト対象</t>
     <rPh sb="3" eb="5">
       <t>タイショウ</t>
@@ -162,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RatesController#update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TweetsController#show</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,57 +231,221 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペアを選択するプルダウンが表示されていること</t>
-    <rPh sb="3" eb="5">
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;form&gt;タグがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;select id="pair"&gt;があること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;select id="interval"&gt;があること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settings.ymlに記載されている期間が選択できること</t>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>settings.ymlに記載されているペアが選択できること</t>
     <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
+      <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラフの種類を選択するプルダウンが表示されていること</t>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="23" eb="25">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USDJPY'が選択されていること</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-min'が選択されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'USDJPY'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'EURJPY'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: '10-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;EURJPY&amp;5分足のレート&gt;]</t>
     <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
+      <t>フンソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンの選択肢の数が正しいこと</t>
-    <rPh sb="6" eb="9">
-      <t>センタクシ</t>
+    <t>rates: [&lt;USDJPY&amp;5分足のレート&gt;]</t>
+    <rPh sb="17" eb="19">
+      <t>フンソク</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>カズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: '5-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'GBPJPY', interval: '30-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'EURJPY', interval: '5-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;USDJPY&amp;10分足のレート&gt;]</t>
+    <rPh sb="18" eb="20">
+      <t>フンソク</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>タダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;GBPJPY&amp;30分足のレート&gt;]</t>
+    <rPh sb="18" eb="20">
+      <t>フンソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プルダウンの種類数が正しいこと</t>
-    <rPh sb="6" eb="9">
-      <t>シュルイスウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>RatesController#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'invalid'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'invalid', interval: 'invalid'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: 'invalid'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,7 +912,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -813,9 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -846,9 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -861,6 +996,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1194,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1212,25 +1365,25 @@
     <row r="1" spans="2:8" ht="19" thickBot="1"/>
     <row r="2" spans="2:8" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -1238,298 +1391,436 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="28">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="23">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="28">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="24">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="F10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="23">
+        <v>9</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="28">
+        <v>10</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="23">
+        <v>11</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="28">
+        <v>12</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="23">
+        <v>13</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="28">
+        <v>14</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="23">
+        <v>15</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="28">
+        <v>16</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="23">
+        <v>17</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="28">
+        <v>18</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19" thickBot="1">
+      <c r="B21" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="29">
-        <v>3</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="24">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="29">
-        <v>5</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="29">
-        <v>6</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="29">
-        <v>7</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="E21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="29">
-        <v>8</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="34">
-        <v>9</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="34">
-        <v>10</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="34">
-        <v>11</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="H21" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="34">
-        <v>12</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="19" thickBot="1">
-      <c r="B15" s="20">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1546,70 +1837,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I4"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="8" width="40.1640625" customWidth="1"/>
-    <col min="9" max="9" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="7" width="40.1640625" customWidth="1"/>
+    <col min="8" max="8" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19" thickBot="1"/>
-    <row r="2" spans="2:9" ht="19" thickBot="1">
+    <row r="1" spans="2:8" ht="19" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19" thickBot="1">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="2:9" ht="19" thickBot="1">
-      <c r="B4" s="9">
+      <c r="C3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12"/>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="43">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="39">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="43">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="39">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="43">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="47">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19" thickBot="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/regulus/test/function_test.xlsx
+++ b/regulus/test/function_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>期待結果</t>
     <rPh sb="0" eb="4">
@@ -429,23 +429,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{pair: 'invalid'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'invalid', interval: 'invalid'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{interval: 'invalid'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: nil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -912,7 +936,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1014,6 +1038,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1350,7 +1377,7 @@
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1837,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1890,7 +1917,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>64</v>
@@ -1913,7 +1940,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>64</v>
@@ -1936,7 +1963,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>64</v>
@@ -1959,7 +1986,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>91</v>
@@ -2018,56 +2045,79 @@
       <c r="B9" s="43">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="43">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F10" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H10" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="47">
-        <v>8</v>
-      </c>
-      <c r="C10" s="33" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="47">
+        <v>9</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D11" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E11" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="F11" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H11" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19" thickBot="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12"/>
+    <row r="12" spans="2:8" ht="19" thickBot="1">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/regulus/test/function_test.xlsx
+++ b/regulus/test/function_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -1376,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/regulus/test/function_test.xlsx
+++ b/regulus/test/function_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>期待結果</t>
     <rPh sb="0" eb="4">
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Controller</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,123 +345,141 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rates: [&lt;EURJPY&amp;5分足のレート&gt;]</t>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: '5-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'GBPJPY', interval: '30-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'EURJPY', interval: '5-min'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RatesController#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;USDJPY&amp;5分足のレート&gt;]
+averages: [&lt;USDJPYの平均値&gt;]</t>
     <rPh sb="17" eb="19">
       <t>フンソク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: [&lt;USDJPY&amp;5分足のレート&gt;]</t>
+    <rPh sb="45" eb="48">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;EURJPY&amp;5分足のレート&gt;]
+averages: [&lt;EURJPYの平均値&gt;]</t>
     <rPh sb="17" eb="19">
       <t>フンソク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RatesController#update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{interval: '5-min'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'GBPJPY', interval: '30-min'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RatesController#update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'EURJPY', interval: '5-min'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: [&lt;USDJPY&amp;10分足のレート&gt;]</t>
+    <rPh sb="45" eb="48">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;USDJPY&amp;10分足のレート&gt;]
+averages: [&lt;USDJPYの平均値&gt;]</t>
     <rPh sb="18" eb="20">
       <t>フンソク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: [&lt;GBPJPY&amp;30分足のレート&gt;]</t>
+    <rPh sb="46" eb="49">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: [&lt;GBPJPY&amp;30分足のレート&gt;]
+averages: [&lt;GBPJPYの平均値&gt;]</t>
     <rPh sb="18" eb="20">
       <t>フンソク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RatesController#show</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: nil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: ['USDJPY'], interval: {min: 5}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RatesController#update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'INVALID'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{interval: 'INVALID'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{pair: 'INVALID', interval: 'INVALID'}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rates: nil</t>
+    <rPh sb="46" eb="49">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: nil
+averages: nil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rates: nil
+averages: nil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -925,6 +935,15 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -936,14 +955,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -955,7 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1026,20 +1041,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1374,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1394,461 +1429,479 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="16">
+    <row r="3" spans="2:8" ht="31">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17" t="s">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="24">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="24">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31">
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="31">
+      <c r="B12" s="24">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="31">
+      <c r="B13" s="19">
+        <v>11</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="31">
+      <c r="B14" s="24">
+        <v>12</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="19">
+        <v>13</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="24">
+        <v>14</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="24">
+        <v>16</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="24">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="28">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="23">
-        <v>3</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19" thickBot="1">
+      <c r="B21" s="16">
         <v>19</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="28">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="23">
-        <v>5</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="28">
-        <v>6</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="23">
-        <v>7</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="28">
-        <v>8</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="36" t="s">
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="23">
-        <v>9</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="28">
-        <v>10</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="23">
-        <v>11</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="28">
-        <v>12</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="23">
-        <v>13</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="28">
-        <v>14</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="23">
-        <v>15</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="28">
-        <v>16</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="23">
-        <v>17</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="37" t="s">
+      <c r="H21" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="28">
-        <v>18</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="19" thickBot="1">
-      <c r="B21" s="20">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>57</v>
-      </c>
+    <row r="22" spans="2:8">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1867,7 +1920,7 @@
   <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1884,240 +1937,240 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="4">
+    <row r="3" spans="2:8" ht="31">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>70</v>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="31">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="39">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="G4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="43">
+      <c r="H4" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="H5" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="39">
-        <v>4</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="41" t="s">
+    </row>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="24">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="H7" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31">
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31">
+      <c r="B9" s="24">
+        <v>7</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="43">
-        <v>5</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="G9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31">
+      <c r="B10" s="24">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="39">
-        <v>6</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="43">
-        <v>8</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31">
       <c r="B11" s="47">
         <v>9</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>90</v>
+      <c r="C11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19" thickBot="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
